--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Selenium Workspace\NewLessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99AB4D5-72D1-48C9-A044-ECAF4ACB2977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39997E5-8B95-43B5-9D7F-4B23B3BE5917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9522F106-96DC-4D38-BE0E-721DFCB03507}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>fname</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>Virat.Yadav@gmail.com</t>
+  </si>
+  <si>
+    <t>user@phptravels.com</t>
+  </si>
+  <si>
+    <t>demouser</t>
+  </si>
+  <si>
+    <t>Lionel</t>
+  </si>
+  <si>
+    <t>Cristiano</t>
   </si>
 </sst>
 </file>
@@ -444,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C697EE8E-6BEF-439E-A493-521D1F171239}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,6 +586,26 @@
       </c>
       <c r="F6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>9087655908</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
